--- a/D15_FastAPI/hanghoa.xlsx
+++ b/D15_FastAPI/hanghoa.xlsx
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -454,10 +455,8 @@
           <t>Sony 32s1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>'11909</t>
-        </is>
+      <c r="C2" s="1" t="n">
+        <v>11909</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,10 +475,8 @@
           <t>Daikin 123</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>'12999</t>
-        </is>
+      <c r="C3" s="1" t="n">
+        <v>12999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/D15_FastAPI/hanghoa.xlsx
+++ b/D15_FastAPI/hanghoa.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,11 @@
           <t>SKU</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,6 +468,11 @@
           <t>SKU0001</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Điện tử</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,6 +491,11 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>SKU0010</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Điện tử</t>
         </is>
       </c>
     </row>
